--- a/salidas/clasificados.xlsx
+++ b/salidas/clasificados.xlsx
@@ -436,18 +436,18 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t># Paciente</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>clas</t>
+          <t>clase</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B767" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B768" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B769" t="inlineStr">
         <is>

--- a/salidas/clasificados.xlsx
+++ b/salidas/clasificados.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="aaP09pHOsDmzn4vJRQxZQ03l/I917uGbNQwI/wzqs/0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="TLPtOzRwFCJFH0VdL4jJZPF263C9q7PKP5E4dBuasNo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="5">
   <si>
     <t>ID Paciente</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
   <si>
     <t>No ident</t>
@@ -305,8 +308,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.57"/>
-    <col customWidth="1" min="2" max="2" width="16.57"/>
+    <col customWidth="1" min="1" max="1" width="12.43"/>
+    <col customWidth="1" min="2" max="2" width="13.86"/>
     <col customWidth="1" min="3" max="26" width="8.71"/>
   </cols>
   <sheetData>
@@ -379,7 +382,7 @@
         <v>1008.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -483,7 +486,7 @@
         <v>1021.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -491,7 +494,7 @@
         <v>1022.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -515,7 +518,7 @@
         <v>1025.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -555,7 +558,7 @@
         <v>1030.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -571,7 +574,7 @@
         <v>1032.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -595,7 +598,7 @@
         <v>1035.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -779,7 +782,7 @@
         <v>1058.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -875,7 +878,7 @@
         <v>1070.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -1011,7 +1014,7 @@
         <v>1087.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
@@ -1027,7 +1030,7 @@
         <v>1089.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
@@ -1131,7 +1134,7 @@
         <v>1102.0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -1251,7 +1254,7 @@
         <v>1117.0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
@@ -1355,7 +1358,7 @@
         <v>1130.0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
@@ -1403,7 +1406,7 @@
         <v>1136.0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
@@ -1451,7 +1454,7 @@
         <v>1142.0</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
@@ -1523,7 +1526,7 @@
         <v>1151.0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
@@ -1659,7 +1662,7 @@
         <v>1168.0</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
@@ -1819,7 +1822,7 @@
         <v>1188.0</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
@@ -1827,7 +1830,7 @@
         <v>1189.0</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
@@ -1835,7 +1838,7 @@
         <v>1190.0</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
@@ -1907,7 +1910,7 @@
         <v>1199.0</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
@@ -2035,7 +2038,7 @@
         <v>1215.0</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
@@ -2051,7 +2054,7 @@
         <v>1217.0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
@@ -2059,7 +2062,7 @@
         <v>1218.0</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
@@ -2259,7 +2262,7 @@
         <v>1243.0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
@@ -2291,7 +2294,7 @@
         <v>1247.0</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
@@ -2355,7 +2358,7 @@
         <v>1255.0</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
@@ -2371,7 +2374,7 @@
         <v>1257.0</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
@@ -2411,7 +2414,7 @@
         <v>1262.0</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
@@ -2475,7 +2478,7 @@
         <v>1270.0</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
@@ -2515,7 +2518,7 @@
         <v>1275.0</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
@@ -2571,7 +2574,7 @@
         <v>1282.0</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
@@ -2579,7 +2582,7 @@
         <v>1283.0</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
@@ -2603,7 +2606,7 @@
         <v>1286.0</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
@@ -2771,7 +2774,7 @@
         <v>1307.0</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
@@ -2795,7 +2798,7 @@
         <v>1310.0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
@@ -2899,7 +2902,7 @@
         <v>1323.0</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
@@ -2923,7 +2926,7 @@
         <v>1326.0</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
@@ -3019,7 +3022,7 @@
         <v>1338.0</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
@@ -3067,7 +3070,7 @@
         <v>1344.0</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
@@ -3083,7 +3086,7 @@
         <v>1346.0</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
@@ -3131,7 +3134,7 @@
         <v>1352.0</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
@@ -3219,7 +3222,7 @@
         <v>1363.0</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
@@ -3235,7 +3238,7 @@
         <v>1365.0</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1">
@@ -3251,7 +3254,7 @@
         <v>1367.0</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
@@ -3419,7 +3422,7 @@
         <v>1388.0</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1">
@@ -3539,7 +3542,7 @@
         <v>1403.0</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1">
@@ -3571,7 +3574,7 @@
         <v>1407.0</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" ht="15.75" customHeight="1">
@@ -3603,7 +3606,7 @@
         <v>1411.0</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1">
@@ -3755,7 +3758,7 @@
         <v>1430.0</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1">
@@ -4067,7 +4070,7 @@
         <v>1469.0</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" ht="15.75" customHeight="1">
@@ -4107,7 +4110,7 @@
         <v>1474.0</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="476" ht="15.75" customHeight="1">
@@ -4155,7 +4158,7 @@
         <v>1480.0</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="482" ht="15.75" customHeight="1">
@@ -4267,7 +4270,7 @@
         <v>1494.0</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496" ht="15.75" customHeight="1">
@@ -4459,7 +4462,7 @@
         <v>1518.0</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" ht="15.75" customHeight="1">
@@ -4467,7 +4470,7 @@
         <v>1519.0</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" ht="15.75" customHeight="1">
@@ -4571,7 +4574,7 @@
         <v>1532.0</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" ht="15.75" customHeight="1">
@@ -4603,7 +4606,7 @@
         <v>1536.0</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="538" ht="15.75" customHeight="1">
@@ -4699,7 +4702,7 @@
         <v>1548.0</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550" ht="15.75" customHeight="1">
@@ -4803,7 +4806,7 @@
         <v>1561.0</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563" ht="15.75" customHeight="1">
@@ -4939,7 +4942,7 @@
         <v>1578.0</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" ht="15.75" customHeight="1">
@@ -4947,7 +4950,7 @@
         <v>1579.0</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581" ht="15.75" customHeight="1">
@@ -4987,7 +4990,7 @@
         <v>1584.0</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="586" ht="15.75" customHeight="1">
@@ -4995,7 +4998,7 @@
         <v>1585.0</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="587" ht="15.75" customHeight="1">
@@ -5163,7 +5166,7 @@
         <v>1606.0</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="608" ht="15.75" customHeight="1">
@@ -5187,7 +5190,7 @@
         <v>1609.0</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="611" ht="15.75" customHeight="1">
@@ -5363,7 +5366,7 @@
         <v>1631.0</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="633" ht="15.75" customHeight="1">
@@ -5451,7 +5454,7 @@
         <v>1642.0</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="644" ht="15.75" customHeight="1">
@@ -5603,7 +5606,7 @@
         <v>1661.0</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="663" ht="15.75" customHeight="1">
@@ -5715,7 +5718,7 @@
         <v>1675.0</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="677" ht="15.75" customHeight="1">
@@ -5731,7 +5734,7 @@
         <v>1677.0</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="679" ht="15.75" customHeight="1">
@@ -5747,7 +5750,7 @@
         <v>1679.0</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="681" ht="15.75" customHeight="1">
@@ -5787,7 +5790,7 @@
         <v>1684.0</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="686" ht="15.75" customHeight="1">
@@ -5859,7 +5862,7 @@
         <v>1693.0</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="695" ht="15.75" customHeight="1">
@@ -5883,7 +5886,7 @@
         <v>1696.0</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="698" ht="15.75" customHeight="1">
@@ -5931,7 +5934,7 @@
         <v>1702.0</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="704" ht="15.75" customHeight="1">
@@ -6067,7 +6070,7 @@
         <v>1719.0</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="721" ht="15.75" customHeight="1">
@@ -6107,7 +6110,7 @@
         <v>1724.0</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="726" ht="15.75" customHeight="1">
@@ -6115,7 +6118,7 @@
         <v>1725.0</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="727" ht="15.75" customHeight="1">
@@ -6123,7 +6126,7 @@
         <v>1726.0</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="728" ht="15.75" customHeight="1">
@@ -6147,7 +6150,7 @@
         <v>1729.0</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="731" ht="15.75" customHeight="1">
@@ -6323,7 +6326,7 @@
         <v>1751.0</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="753" ht="15.75" customHeight="1">
@@ -6371,7 +6374,7 @@
         <v>1757.0</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="759" ht="15.75" customHeight="1">
